--- a/outputs/w2.xlsx
+++ b/outputs/w2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.7727</v>
+        <v>86.05855</v>
       </c>
       <c r="C3" t="n">
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5264</v>
+        <v>1.53815</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2594</v>
+        <v>1.21245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.152058102050815</v>
+        <v>0.1261038195217327</v>
       </c>
     </row>
     <row r="4">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.7727</v>
+        <v>85.34439999999999</v>
       </c>
       <c r="C4" t="n">
         <v>200</v>
@@ -520,10 +520,10 @@
         <v>1.5264</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2594</v>
+        <v>1.1655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.152058102050815</v>
+        <v>0.1001495369926503</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.7727</v>
+        <v>85.70147499999999</v>
       </c>
       <c r="C5" t="n">
         <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5264</v>
+        <v>1.532275</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2594</v>
+        <v>1.188975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.152058102050815</v>
+        <v>0.1131266782571915</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.7727</v>
+        <v>86.05855</v>
       </c>
       <c r="C6" t="n">
         <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5264</v>
+        <v>1.53815</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2594</v>
+        <v>1.21245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.152058102050815</v>
+        <v>0.1261038195217327</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.7727</v>
+        <v>86.41562500000001</v>
       </c>
       <c r="C7" t="n">
         <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5264</v>
+        <v>1.544025</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2594</v>
+        <v>1.235925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.152058102050815</v>
+        <v>0.1390809607862738</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         <v>200</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5264</v>
+        <v>1.5499</v>
       </c>
       <c r="E8" t="n">
         <v>1.2594</v>
@@ -620,11 +620,21 @@
           <t>std</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1.009960615568751</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01661700935788392</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06639732675341688</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03670489835429133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
